--- a/javascriptexcel/excel.xlsx
+++ b/javascriptexcel/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
   <si>
     <t>tckn</t>
   </si>
@@ -22,64 +22,361 @@
     <t>isim-soyisim</t>
   </si>
   <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>sicil no</t>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>sicilno</t>
   </si>
   <si>
     <t>kartid</t>
   </si>
   <si>
-    <t>12345678902</t>
-  </si>
-  <si>
-    <t>Ahmet Mehmet</t>
+    <t>Mustafa Ekşi</t>
+  </si>
+  <si>
+    <t>Yazılımcı</t>
+  </si>
+  <si>
+    <t>2Yz1T1</t>
+  </si>
+  <si>
+    <t>0548066</t>
+  </si>
+  <si>
+    <t>Deneme 1</t>
   </si>
   <si>
     <t>Yardımcı</t>
   </si>
   <si>
-    <t>2Yr1T1</t>
-  </si>
-  <si>
-    <t>0543839</t>
-  </si>
-  <si>
-    <t>12345678903</t>
-  </si>
-  <si>
-    <t>Şeyda Gündüz</t>
-  </si>
-  <si>
-    <t>Yazılımcı</t>
-  </si>
-  <si>
-    <t>2Yz1T2</t>
-  </si>
-  <si>
-    <t>0576480</t>
-  </si>
-  <si>
-    <t>12345678901</t>
-  </si>
-  <si>
-    <t>Mustafa Ekşi</t>
+    <t>2Yr1T2</t>
+  </si>
+  <si>
+    <t>0557556</t>
+  </si>
+  <si>
+    <t>Deneme 2</t>
   </si>
   <si>
     <t>2Yz2T3</t>
   </si>
   <si>
-    <t>0540902</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>2Yr2T4</t>
-  </si>
-  <si>
-    <t>0598221</t>
+    <t>0596809</t>
+  </si>
+  <si>
+    <t>Deneme 3</t>
+  </si>
+  <si>
+    <t>2Yz3T4</t>
+  </si>
+  <si>
+    <t>0556206</t>
+  </si>
+  <si>
+    <t>Deneme 4</t>
+  </si>
+  <si>
+    <t>2Yr2T5</t>
+  </si>
+  <si>
+    <t>0534946</t>
+  </si>
+  <si>
+    <t>Deneme 5</t>
+  </si>
+  <si>
+    <t>2Yr3T6</t>
+  </si>
+  <si>
+    <t>0575856</t>
+  </si>
+  <si>
+    <t>Deneme 6</t>
+  </si>
+  <si>
+    <t>2Yz4T7</t>
+  </si>
+  <si>
+    <t>0589524</t>
+  </si>
+  <si>
+    <t>Deneme 7</t>
+  </si>
+  <si>
+    <t>2Yz5T8</t>
+  </si>
+  <si>
+    <t>0505252</t>
+  </si>
+  <si>
+    <t>Deneme 8</t>
+  </si>
+  <si>
+    <t>2Yr4T9</t>
+  </si>
+  <si>
+    <t>0503722</t>
+  </si>
+  <si>
+    <t>Deneme 9</t>
+  </si>
+  <si>
+    <t>2Yr5T10</t>
+  </si>
+  <si>
+    <t>0585283</t>
+  </si>
+  <si>
+    <t>Deneme 10</t>
+  </si>
+  <si>
+    <t>2Yz6T11</t>
+  </si>
+  <si>
+    <t>0543388</t>
+  </si>
+  <si>
+    <t>Deneme 11</t>
+  </si>
+  <si>
+    <t>2Yz7T12</t>
+  </si>
+  <si>
+    <t>0531971</t>
+  </si>
+  <si>
+    <t>Deneme 12</t>
+  </si>
+  <si>
+    <t>2Yr6T13</t>
+  </si>
+  <si>
+    <t>0535025</t>
+  </si>
+  <si>
+    <t>Deneme 13</t>
+  </si>
+  <si>
+    <t>2Yr7T14</t>
+  </si>
+  <si>
+    <t>0549107</t>
+  </si>
+  <si>
+    <t>Deneme 14</t>
+  </si>
+  <si>
+    <t>2Yz8T15</t>
+  </si>
+  <si>
+    <t>0559375</t>
+  </si>
+  <si>
+    <t>Deneme 15</t>
+  </si>
+  <si>
+    <t>2Yz9T16</t>
+  </si>
+  <si>
+    <t>0542635</t>
+  </si>
+  <si>
+    <t>Deneme 16</t>
+  </si>
+  <si>
+    <t>2Yr8T17</t>
+  </si>
+  <si>
+    <t>0515728</t>
+  </si>
+  <si>
+    <t>Deneme 17</t>
+  </si>
+  <si>
+    <t>2Yr9T18</t>
+  </si>
+  <si>
+    <t>0513127</t>
+  </si>
+  <si>
+    <t>Deneme 18</t>
+  </si>
+  <si>
+    <t>2Yz10T19</t>
+  </si>
+  <si>
+    <t>0594059</t>
+  </si>
+  <si>
+    <t>Deneme 19</t>
+  </si>
+  <si>
+    <t>2Yr10T20</t>
+  </si>
+  <si>
+    <t>0541061</t>
+  </si>
+  <si>
+    <t>Deneme 20</t>
+  </si>
+  <si>
+    <t>2Yz11T21</t>
+  </si>
+  <si>
+    <t>0574807</t>
+  </si>
+  <si>
+    <t>Deneme 21</t>
+  </si>
+  <si>
+    <t>2Yz12T22</t>
+  </si>
+  <si>
+    <t>0562062</t>
+  </si>
+  <si>
+    <t>Deneme 22</t>
+  </si>
+  <si>
+    <t>2Yr11T23</t>
+  </si>
+  <si>
+    <t>0522161</t>
+  </si>
+  <si>
+    <t>Deneme 23</t>
+  </si>
+  <si>
+    <t>2Yr12T24</t>
+  </si>
+  <si>
+    <t>0526731</t>
+  </si>
+  <si>
+    <t>Deneme 24</t>
+  </si>
+  <si>
+    <t>2Yz13T25</t>
+  </si>
+  <si>
+    <t>0505452</t>
+  </si>
+  <si>
+    <t>Deneme 25</t>
+  </si>
+  <si>
+    <t>2Yz14T26</t>
+  </si>
+  <si>
+    <t>0551502</t>
+  </si>
+  <si>
+    <t>Deneme 26</t>
+  </si>
+  <si>
+    <t>2Yr13T27</t>
+  </si>
+  <si>
+    <t>0525991</t>
+  </si>
+  <si>
+    <t>Deneme 27</t>
+  </si>
+  <si>
+    <t>2Yr14T28</t>
+  </si>
+  <si>
+    <t>0504945</t>
+  </si>
+  <si>
+    <t>Deneme 28</t>
+  </si>
+  <si>
+    <t>2Yz15T29</t>
+  </si>
+  <si>
+    <t>0588009</t>
+  </si>
+  <si>
+    <t>Deneme 29</t>
+  </si>
+  <si>
+    <t>2Yz16T30</t>
+  </si>
+  <si>
+    <t>0588368</t>
+  </si>
+  <si>
+    <t>Deneme 30</t>
+  </si>
+  <si>
+    <t>2Yr15T31</t>
+  </si>
+  <si>
+    <t>0559022</t>
+  </si>
+  <si>
+    <t>Deneme 31</t>
+  </si>
+  <si>
+    <t>2Yz17T32</t>
+  </si>
+  <si>
+    <t>0529434</t>
+  </si>
+  <si>
+    <t>Deneme 32</t>
+  </si>
+  <si>
+    <t>2Yz18T33</t>
+  </si>
+  <si>
+    <t>0567724</t>
+  </si>
+  <si>
+    <t>Deneme 33</t>
+  </si>
+  <si>
+    <t>2Yr16T34</t>
+  </si>
+  <si>
+    <t>0526462</t>
+  </si>
+  <si>
+    <t>Deneme 34</t>
+  </si>
+  <si>
+    <t>2Yr17T35</t>
+  </si>
+  <si>
+    <t>0596146</t>
+  </si>
+  <si>
+    <t>Deneme 35</t>
+  </si>
+  <si>
+    <t>2Yz19T36</t>
+  </si>
+  <si>
+    <t>0596264</t>
+  </si>
+  <si>
+    <t>Deneme 36</t>
+  </si>
+  <si>
+    <t>2Yz20T37</t>
+  </si>
+  <si>
+    <t>0503940</t>
+  </si>
+  <si>
+    <t>Deneme 37</t>
+  </si>
+  <si>
+    <t>2Yr18T38</t>
+  </si>
+  <si>
+    <t>0514139</t>
   </si>
 </sst>
 </file>
@@ -121,9 +418,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,9 +939,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.00390625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.00390625" customWidth="1"/>
-    <col min="4" max="4" width="15.8515625" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,77 +957,871 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>12345678900</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>12345678901</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>12345678902</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>12345678903</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>12345678904</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>12345678905</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12345678906</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>12345678907</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>12345678908</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>12345678909</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12345678910</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12345678911</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12345678912</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12345678913</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12345678914</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12345678915</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12345678916</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>12345678917</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>12345678918</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>12345678919</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>12345678920</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>12345678921</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>12345678922</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>12345678923</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>12345678924</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>12345678925</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>12345678926</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>12345678927</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>12345678928</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>12345678929</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>12345678930</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>12345678931</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>12345678932</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>12345678933</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>12345678934</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>12345678935</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>12345678936</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>12345678937</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>12345678904</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>12345678905</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>12345678906</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>12345678907</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>12345678908</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>12345678909</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>12345678910</v>
+      </c>
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>12345678911</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>12345678912</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>12345678913</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>12345678914</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>12345678915</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>12345678916</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>12345678917</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>12345678918</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>12345678919</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>12345678920</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>12345678921</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>

--- a/javascriptexcel/excel.xlsx
+++ b/javascriptexcel/excel.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>tckn</t>
   </si>
@@ -25,377 +24,142 @@
     <t>rol</t>
   </si>
   <si>
-    <t>sicilno</t>
-  </si>
-  <si>
-    <t>kartid</t>
-  </si>
-  <si>
-    <t>Mustafa Ekşi</t>
+    <t xml:space="preserve">Mustafa Ekşi</t>
   </si>
   <si>
     <t>Yazılımcı</t>
   </si>
   <si>
-    <t>2Yz1T1</t>
-  </si>
-  <si>
-    <t>0548066</t>
-  </si>
-  <si>
-    <t>Deneme 1</t>
+    <t xml:space="preserve">Deneme 1</t>
   </si>
   <si>
     <t>Yardımcı</t>
   </si>
   <si>
-    <t>2Yr1T2</t>
-  </si>
-  <si>
-    <t>0557556</t>
-  </si>
-  <si>
-    <t>Deneme 2</t>
-  </si>
-  <si>
-    <t>2Yz2T3</t>
-  </si>
-  <si>
-    <t>0596809</t>
-  </si>
-  <si>
-    <t>Deneme 3</t>
-  </si>
-  <si>
-    <t>2Yz3T4</t>
-  </si>
-  <si>
-    <t>0556206</t>
-  </si>
-  <si>
-    <t>Deneme 4</t>
-  </si>
-  <si>
-    <t>2Yr2T5</t>
-  </si>
-  <si>
-    <t>0534946</t>
-  </si>
-  <si>
-    <t>Deneme 5</t>
-  </si>
-  <si>
-    <t>2Yr3T6</t>
-  </si>
-  <si>
-    <t>0575856</t>
-  </si>
-  <si>
-    <t>Deneme 6</t>
-  </si>
-  <si>
-    <t>2Yz4T7</t>
-  </si>
-  <si>
-    <t>0589524</t>
-  </si>
-  <si>
-    <t>Deneme 7</t>
-  </si>
-  <si>
-    <t>2Yz5T8</t>
-  </si>
-  <si>
-    <t>0505252</t>
-  </si>
-  <si>
-    <t>Deneme 8</t>
-  </si>
-  <si>
-    <t>2Yr4T9</t>
-  </si>
-  <si>
-    <t>0503722</t>
-  </si>
-  <si>
-    <t>Deneme 9</t>
-  </si>
-  <si>
-    <t>2Yr5T10</t>
-  </si>
-  <si>
-    <t>0585283</t>
-  </si>
-  <si>
-    <t>Deneme 10</t>
-  </si>
-  <si>
-    <t>2Yz6T11</t>
-  </si>
-  <si>
-    <t>0543388</t>
-  </si>
-  <si>
-    <t>Deneme 11</t>
-  </si>
-  <si>
-    <t>2Yz7T12</t>
-  </si>
-  <si>
-    <t>0531971</t>
-  </si>
-  <si>
-    <t>Deneme 12</t>
-  </si>
-  <si>
-    <t>2Yr6T13</t>
-  </si>
-  <si>
-    <t>0535025</t>
-  </si>
-  <si>
-    <t>Deneme 13</t>
-  </si>
-  <si>
-    <t>2Yr7T14</t>
-  </si>
-  <si>
-    <t>0549107</t>
-  </si>
-  <si>
-    <t>Deneme 14</t>
-  </si>
-  <si>
-    <t>2Yz8T15</t>
-  </si>
-  <si>
-    <t>0559375</t>
-  </si>
-  <si>
-    <t>Deneme 15</t>
-  </si>
-  <si>
-    <t>2Yz9T16</t>
-  </si>
-  <si>
-    <t>0542635</t>
-  </si>
-  <si>
-    <t>Deneme 16</t>
-  </si>
-  <si>
-    <t>2Yr8T17</t>
-  </si>
-  <si>
-    <t>0515728</t>
-  </si>
-  <si>
-    <t>Deneme 17</t>
-  </si>
-  <si>
-    <t>2Yr9T18</t>
-  </si>
-  <si>
-    <t>0513127</t>
-  </si>
-  <si>
-    <t>Deneme 18</t>
-  </si>
-  <si>
-    <t>2Yz10T19</t>
-  </si>
-  <si>
-    <t>0594059</t>
-  </si>
-  <si>
-    <t>Deneme 19</t>
-  </si>
-  <si>
-    <t>2Yr10T20</t>
-  </si>
-  <si>
-    <t>0541061</t>
-  </si>
-  <si>
-    <t>Deneme 20</t>
-  </si>
-  <si>
-    <t>2Yz11T21</t>
-  </si>
-  <si>
-    <t>0574807</t>
-  </si>
-  <si>
-    <t>Deneme 21</t>
-  </si>
-  <si>
-    <t>2Yz12T22</t>
-  </si>
-  <si>
-    <t>0562062</t>
-  </si>
-  <si>
-    <t>Deneme 22</t>
-  </si>
-  <si>
-    <t>2Yr11T23</t>
-  </si>
-  <si>
-    <t>0522161</t>
-  </si>
-  <si>
-    <t>Deneme 23</t>
-  </si>
-  <si>
-    <t>2Yr12T24</t>
-  </si>
-  <si>
-    <t>0526731</t>
-  </si>
-  <si>
-    <t>Deneme 24</t>
-  </si>
-  <si>
-    <t>2Yz13T25</t>
-  </si>
-  <si>
-    <t>0505452</t>
-  </si>
-  <si>
-    <t>Deneme 25</t>
-  </si>
-  <si>
-    <t>2Yz14T26</t>
-  </si>
-  <si>
-    <t>0551502</t>
-  </si>
-  <si>
-    <t>Deneme 26</t>
-  </si>
-  <si>
-    <t>2Yr13T27</t>
-  </si>
-  <si>
-    <t>0525991</t>
-  </si>
-  <si>
-    <t>Deneme 27</t>
-  </si>
-  <si>
-    <t>2Yr14T28</t>
-  </si>
-  <si>
-    <t>0504945</t>
-  </si>
-  <si>
-    <t>Deneme 28</t>
-  </si>
-  <si>
-    <t>2Yz15T29</t>
-  </si>
-  <si>
-    <t>0588009</t>
-  </si>
-  <si>
-    <t>Deneme 29</t>
-  </si>
-  <si>
-    <t>2Yz16T30</t>
-  </si>
-  <si>
-    <t>0588368</t>
-  </si>
-  <si>
-    <t>Deneme 30</t>
-  </si>
-  <si>
-    <t>2Yr15T31</t>
-  </si>
-  <si>
-    <t>0559022</t>
-  </si>
-  <si>
-    <t>Deneme 31</t>
-  </si>
-  <si>
-    <t>2Yz17T32</t>
-  </si>
-  <si>
-    <t>0529434</t>
-  </si>
-  <si>
-    <t>Deneme 32</t>
-  </si>
-  <si>
-    <t>2Yz18T33</t>
-  </si>
-  <si>
-    <t>0567724</t>
-  </si>
-  <si>
-    <t>Deneme 33</t>
-  </si>
-  <si>
-    <t>2Yr16T34</t>
-  </si>
-  <si>
-    <t>0526462</t>
-  </si>
-  <si>
-    <t>Deneme 34</t>
-  </si>
-  <si>
-    <t>2Yr17T35</t>
-  </si>
-  <si>
-    <t>0596146</t>
-  </si>
-  <si>
-    <t>Deneme 35</t>
-  </si>
-  <si>
-    <t>2Yz19T36</t>
-  </si>
-  <si>
-    <t>0596264</t>
-  </si>
-  <si>
-    <t>Deneme 36</t>
-  </si>
-  <si>
-    <t>2Yz20T37</t>
-  </si>
-  <si>
-    <t>0503940</t>
-  </si>
-  <si>
-    <t>Deneme 37</t>
-  </si>
-  <si>
-    <t>2Yr18T38</t>
-  </si>
-  <si>
-    <t>0514139</t>
+    <t xml:space="preserve">Deneme 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 37</t>
+  </si>
+  <si>
+    <t>99999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme 99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,12 +180,13 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,9 +196,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -930,21 +692,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.00390625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.00390625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="14.00390625"/>
+    <col customWidth="1" min="2" max="2" width="13.00390625"/>
+    <col customWidth="1" min="5" max="5" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,877 +715,695 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1">
         <v>12345678900</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1">
         <v>12345678901</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1">
         <v>12345678902</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1">
         <v>12345678903</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1">
         <v>12345678904</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1">
         <v>12345678905</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1">
         <v>12345678906</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1">
         <v>12345678907</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1">
         <v>12345678908</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1">
         <v>12345678909</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1">
         <v>12345678910</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1">
         <v>12345678911</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1">
         <v>12345678912</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <v>12345678913</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <v>12345678914</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1">
         <v>12345678915</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1">
         <v>12345678916</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1">
         <v>12345678917</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1">
         <v>12345678918</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1">
         <v>12345678919</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1">
         <v>12345678920</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1">
         <v>12345678921</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1">
         <v>12345678922</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1">
         <v>12345678923</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="1">
         <v>12345678924</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1">
         <v>12345678925</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="1">
         <v>12345678926</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1">
         <v>12345678927</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="1">
         <v>12345678928</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1">
         <v>12345678929</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="1">
         <v>12345678930</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1">
         <v>12345678931</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1">
         <v>12345678932</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1">
         <v>12345678933</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1">
         <v>12345678934</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1">
         <v>12345678935</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1">
         <v>12345678936</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1">
         <v>12345678937</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1">
         <v>12345678904</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="1">
         <v>12345678905</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1">
         <v>12345678906</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1">
         <v>12345678907</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="1">
         <v>12345678908</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="1">
         <v>12345678909</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1">
         <v>12345678910</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="1">
         <v>12345678911</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="1">
         <v>12345678912</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1">
         <v>12345678913</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1">
         <v>12345678914</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="1">
         <v>12345678915</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="1">
         <v>12345678916</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="1">
         <v>12345678917</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="1">
         <v>12345678918</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1">
         <v>12345678919</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1">
         <v>12345678920</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="1">
         <v>12345678921</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1"/>
     </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="2147483647" useFirstPageNumber="1" usePrinterDefaults="1" copies="1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/javascriptexcel/excel.xlsx
+++ b/javascriptexcel/excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>tckn</t>
   </si>
@@ -21,133 +21,496 @@
     <t>isim-soyisim</t>
   </si>
   <si>
-    <t>rol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mustafa Ekşi</t>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHMET ALİ TULUKCU</t>
   </si>
   <si>
     <t>Yazılımcı</t>
   </si>
   <si>
-    <t xml:space="preserve">Deneme 1</t>
+    <t xml:space="preserve">MUSTAFA ÖZPINAR</t>
   </si>
   <si>
     <t>Yardımcı</t>
   </si>
   <si>
-    <t xml:space="preserve">Deneme 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 37</t>
-  </si>
-  <si>
-    <t>99999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deneme 99</t>
+    <t xml:space="preserve">ERAY EROĞLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boş işler müdürü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMET MELİH KARAUĞUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALİ OSMAN GÜNAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMET YÜGRÜK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KÜBRA BAKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERT DAĞADASI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KÜBRA ÇAĞLAYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMED MERCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATMA İŞLEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUĞBA ÇINAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASLIHAN ALTUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANSU HÜĞÜL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMİLE EVREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEYNEP BAKRAÇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUSUF DİNÇER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HATİCE SEPETCİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HATİCE SENA KARABİLGİN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECEM BEKAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÖMER MURAT DOĞAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALİ FURKAN ZIVLAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUĞRUL ALPTEKİN ERTÜRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAZIL OĞUZHAN ŞEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŞEYDA GÜNDÜZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELİF NUR KAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HACER GİZEM GÖK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KORAY ERBİL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEYHUN GÜL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULYA İNCİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÖMER FARUK BORAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELİKE ERTAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMED ALİ KÖSEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMED GÖNEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATMANUR ÖZDEMİR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFNAN DURMAZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAZİYE CEREN İNCEKARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHMET FATİH GÜMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAVUZ SELİM TAŞÇI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMED KEREM DIVARCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÜSEYİN KÜRŞAT KESKİN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATİH BAYRAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMED SABRİ CENGİZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEMALETTİN KURŞUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSTAFA KARAKUŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RABİA HATİPOĞLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYŞE YAĞMUR SÜZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÜEDA TELEK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERKAN GÜR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUZAFFER ÇETİNKAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEYRA KOÇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDULLAH UMUT KESKİN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMET ERUYAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASAN ESAD BAŞKÜRKÇÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATMA NUR YAKIŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŞERİFE GÜMÜŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALİ ARAÇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFİYE ÜNVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSMAN SÜREYYA KOCABAŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZAFER OKTAY ARICI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELİKE GÖZDAŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHMET İLHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İHYA ÇAĞRI ÇAĞIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÜMEYYE ÇOBANOĞLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMET CELALETTİN ÖZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSTAFA CAHİT KARATAŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIDVAN YILDIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATUHAN RÜZGAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İBRAHİM ALPER AYDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÜNAL ALTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFET ÖZTÜRK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMİRHAN SOYUĞUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATUHAN SOYKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASAN KAĞAN ARSLANTAŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">METEHAN ÖZDENİZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÜCAHİT DUMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERKAN YAZGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BİLAL KİBAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEDA ÖZDEMİR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELİF HANCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSMAN AKMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÜMEYRA GÜÇLÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEFA NUR YİĞİT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDULKADİR KARANFİL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUSUF YILMAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUH DEMİRÖZKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HİDAYET ÖZGERİÇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NURSENA TAŞKÖPRÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SÜLEYMAN KAPLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHMUT KAAN YAVUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKREM GÜNDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SABRİ TURHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SULEYMAN YOLLYYEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÜSEYİN DEVECİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYŞE NUR YÜZÜGÜLLÜ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALİ EKBER KARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASAN ORHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FATMA BETÜL TERZİOĞLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İSMAİL ÖNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NİSA YAKUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURKAN YEŞİLDAĞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ÖMER MEHMET ŞENEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUMA YILDIRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMİH TUNÇAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEREM YILDIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMED AYTUĞ ERTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAKAN KARAKUŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LADİN SARIGÜL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAKAN İNCİMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDURRAHMAN TAHA ÖZDEMİR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERVA NUR KOÇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANA BELVERENLİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YİĞİT ALİ KALAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALİHAN KALE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMZA BORA AYDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEYZA MUTLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURAK AKKOÇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURKAN KOÇ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABDULLAH TAŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIL TALHA BULDUKLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAHMUT KIZILCIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMET HAKKI EKİCİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSTAFA ÇELİK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KADİR KARPÇİN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARUN OMURTAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHMET TALHA GÖVEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEKİR SITKI PEKTAŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONER TÜRKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MERT YURTÇU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBA DOĞAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATAKAN DUMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYŞE BERRA ORAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İBRAHİM IRMAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RABİA AKBAŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İBRAHİM KÖROĞLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HASAN TAŞLICALI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEHMET ALİ GÖKÇAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURAK CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÜŞRA TANOĞLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENA TOPLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUĞBA CENGİZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İLKNUR KUMRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUNUS EMRE TAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILANUR YİĞİT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FURKAN SAMET KÜÇÜK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORÇUN EGE ELÇİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NİLÜFER TANIŞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ŞEYMA SAPMAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALEYNA BABAANDAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELAMİ ÖZDİL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELİNAY ÖZKALAYCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MÜZEYYEN SENA DURGUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUHAMMET TALHA ÇOMAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EBUBEKİR TALHA BİLİR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BERAT ÇARŞI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HÜSEYİN BAYRAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAİDE GÖKÇELİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEYZA YILDIZ ÜNGÖR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUSTAFA ÜNGÖR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">İSİM BULAMADIM</t>
   </si>
 </sst>
 </file>
@@ -182,11 +545,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,710 +1056,1800 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="A134" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="14.00390625"/>
-    <col customWidth="1" min="2" max="2" width="13.00390625"/>
+    <col customWidth="1" min="1" max="1" style="1" width="14"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="29.85546875"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="41.42578125"/>
+    <col min="4" max="4" style="1" width="9.140625"/>
     <col customWidth="1" min="5" max="5" style="1" width="9.140625"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1">
         <v>12345678900</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="1">
         <v>12345678901</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="1">
         <v>12345678902</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1">
         <v>12345678903</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1">
         <v>12345678904</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="1">
         <v>12345678905</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="1">
         <v>12345678906</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="1">
         <v>12345678907</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1">
         <v>12345678908</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1">
         <v>12345678909</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1">
         <v>12345678910</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1">
         <v>12345678911</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="1">
         <v>12345678912</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <v>12345678913</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <v>12345678914</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="1">
         <v>12345678915</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="1">
         <v>12345678916</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="1">
         <v>12345678917</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="1">
         <v>12345678918</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1">
         <v>12345678919</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="1">
         <v>12345678920</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="1">
         <v>12345678921</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="1">
         <v>12345678922</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="1">
         <v>12345678923</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="1">
         <v>12345678924</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="1">
         <v>12345678925</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="1">
         <v>12345678926</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="1">
         <v>12345678927</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="1">
         <v>12345678928</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="1">
         <v>12345678929</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="1">
         <v>12345678930</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="1">
         <v>12345678931</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="1">
         <v>12345678932</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="1">
         <v>12345678933</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="1">
         <v>12345678934</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="1">
         <v>12345678935</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="1">
         <v>12345678936</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1">
         <v>12345678937</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="1">
-        <v>12345678904</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>12345678938</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="1">
-        <v>12345678905</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>12345678939</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="1">
-        <v>12345678906</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>12345678940</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="1">
-        <v>12345678907</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>12345678941</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="1">
-        <v>12345678908</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>12345678942</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="1">
-        <v>12345678909</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>12345678943</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="1">
-        <v>12345678910</v>
-      </c>
-      <c r="B46" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>12345678944</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="1">
-        <v>12345678911</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>12345678945</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="1">
-        <v>12345678912</v>
-      </c>
-      <c r="B48" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>12345678946</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="1">
-        <v>12345678913</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>12345678947</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="1">
-        <v>12345678914</v>
-      </c>
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>12345678948</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="1">
-        <v>12345678915</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>12345678949</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="1">
-        <v>12345678916</v>
-      </c>
-      <c r="B52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>12345678950</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="1">
-        <v>12345678917</v>
-      </c>
-      <c r="B53" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>12345678951</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="1">
-        <v>12345678918</v>
-      </c>
-      <c r="B54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>12345678952</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="1">
-        <v>12345678919</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>12345678953</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="1">
-        <v>12345678920</v>
-      </c>
-      <c r="B56" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>12345678954</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="1">
-        <v>12345678921</v>
-      </c>
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>12345678955</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
+      <c r="A58" s="1">
+        <v>12345678956</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="1">
+        <v>12345678957</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="1">
+        <v>12345678958</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="1">
+        <v>12345678959</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="1">
+        <v>12345678960</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="1">
+        <v>12345678961</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="1">
+        <v>12345678962</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="1">
+        <v>12345678963</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="1">
+        <v>12345678964</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="1">
+        <v>12345678965</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="1">
+        <v>12345678966</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="1">
+        <v>12345678967</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="1">
+        <v>12345678968</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="1">
+        <v>12345678969</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="1">
+        <v>12345678970</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="1">
+        <v>12345678971</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="1">
+        <v>12345678972</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="1">
+        <v>12345678973</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="1">
+        <v>12345678974</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="1">
+        <v>12345678975</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="1">
+        <v>12345678976</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="1">
+        <v>12345678977</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="1">
+        <v>12345678978</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="1">
+        <v>12345678979</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="1">
+        <v>12345678980</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="1">
+        <v>12345678981</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="1">
+        <v>12345678982</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="1">
+        <v>12345678983</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="1">
+        <v>12345678984</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="1">
+        <v>12345678985</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="1">
+        <v>12345678986</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="1">
+        <v>12345678987</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="1">
+        <v>12345678988</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="1">
+        <v>12345678989</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="1">
+        <v>12345678990</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="1">
+        <v>12345678991</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="1">
+        <v>12345678992</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="1">
+        <v>12345678993</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="1">
+        <v>12345678994</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="1">
+        <v>12345678995</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="1">
+        <v>12345678996</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="1">
+        <v>12345678997</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="1">
+        <v>12345678998</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="1">
+        <v>12345678999</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="1">
+        <v>12345679000</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="1">
+        <v>12345679001</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="1">
+        <v>12345679002</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="1">
+        <v>12345679003</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="1">
+        <v>12345679004</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="1">
+        <v>12345679005</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="1">
+        <v>12345679006</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="1">
+        <v>12345679007</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="1">
+        <v>12345679008</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="1">
+        <v>12345679009</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="1">
+        <v>12345679010</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="1">
+        <v>12345679011</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="1">
+        <v>12345679012</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="1">
+        <v>12345679013</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="1">
+        <v>12345679014</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="1">
+        <v>12345679015</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="1">
+        <v>12345679016</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="1">
+        <v>12345679017</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="1">
+        <v>12345679018</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="1">
+        <v>12345679019</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="1">
+        <v>12345679020</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="1">
+        <v>12345679021</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="1">
+        <v>12345679022</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="1">
+        <v>12345679023</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="1">
+        <v>12345679024</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="1">
+        <v>12345679025</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="1">
+        <v>12345679026</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="1">
+        <v>12345679027</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="1">
+        <v>12345679028</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="1">
+        <v>12345679029</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="1">
+        <v>12345679030</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="1">
+        <v>12345679031</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="1">
+        <v>12345679032</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="1">
+        <v>12345679033</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="1">
+        <v>12345679034</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="1">
+        <v>12345679035</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="1">
+        <v>12345679036</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="1">
+        <v>12345679037</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="1">
+        <v>12345679038</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="1">
+        <v>12345679039</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="1">
+        <v>12345679040</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="1">
+        <v>12345679041</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="1">
+        <v>12345679042</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="1">
+        <v>12345679043</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="1">
+        <v>12345679044</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="1">
+        <v>12345679045</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="1">
+        <v>12345679046</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="1">
+        <v>12345679047</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="1">
+        <v>12345679048</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="1">
+        <v>12345679049</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="1">
+        <v>12345679050</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="A153" s="1">
+        <v>12345679051</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="A154" s="1">
+        <v>12345679052</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="A155" s="1">
+        <v>12345679053</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="A156" s="1">
+        <v>12345679054</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="A157" s="1">
+        <v>12345679055</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="A158" s="1">
+        <v>12345679056</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="A159" s="1">
+        <v>12345679057</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="A160" s="1">
+        <v>12345679058</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="A161" s="1">
+        <v>12345679059</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="A162">
+        <v>99999999999</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
